--- a/src/main/webapp/resources/insert/InsertUnivSchedule.xlsx
+++ b/src/main/webapp/resources/insert/InsertUnivSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D3CC2B-9E1F-47DF-A46E-14F820388FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F241CDF8-4C6C-403F-AFC4-5CEBB3A5D7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -754,9 +754,6 @@
     <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,10 +772,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,14 +1130,14 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E8" sqref="A2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
@@ -1148,136 +1148,113 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="10" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2"/>
-      <c r="C2" s="13"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="8"/>
+      <c r="F2" s="7"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="7"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="9"/>
+      <c r="F12" s="8"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17"/>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18"/>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19"/>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20"/>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21"/>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22"/>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23"/>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H23" s="2"/>
     </row>
   </sheetData>
